--- a/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>19,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>430,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>-9,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-34,64%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 12,69</t>
+          <t>2,46; 36,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,46</t>
+          <t>-19,26; 17,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,48</t>
+          <t>5,27; 43,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 1,4</t>
+          <t>0,0; 27,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 101,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 107,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 40,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 13,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>-34,64%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,97</t>
+          <t>0,38; 12,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,88</t>
+          <t>-0,06; 12,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,32</t>
+          <t>-6,66; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,59</t>
+          <t>-10,76; 1,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 55,82</t>
+          <t>2,07; 101,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,96; 201,23</t>
+          <t>-1,27; 107,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 85,9</t>
+          <t>-39,0; 40,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 83,77</t>
+          <t>-61,6; 13,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,85</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>9,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>430,17%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>51,37%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 36,6</t>
+          <t>-1,84; 12,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 17,6</t>
+          <t>-5,57; 6,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 43,09</t>
+          <t>-8,32; 4,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,24</t>
+          <t>0,66; 22,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,88; 106,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,19; 65,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,93; 43,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,31; 151,75</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>10,37%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 12,89</t>
+          <t>-6,3; 4,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,71</t>
+          <t>1,25; 12,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,13</t>
+          <t>-3,42; 9,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 22,8</t>
+          <t>-4,75; 6,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 106,1</t>
+          <t>-41,86; 55,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 65,08</t>
+          <t>8,96; 201,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 43,79</t>
+          <t>-21,29; 85,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 151,75</t>
+          <t>-35,39; 83,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 36,6</t>
+          <t>2,58; 37,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,26; 17,6</t>
+          <t>-18,39; 18,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 43,09</t>
+          <t>5,14; 42,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 8,43</t>
+          <t>-7,53; 8,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 6,09</t>
+          <t>-9,98; 7,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 6,42</t>
+          <t>-8,1; 5,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 7,67</t>
+          <t>-19,0; 8,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 62,21</t>
+          <t>-37,4; 63,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 41,37</t>
+          <t>-44,78; 52,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,62; 80,88</t>
+          <t>-55,38; 80,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,24; 229,59</t>
+          <t>-78,57; 243,93</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 12,69</t>
+          <t>-0,49; 11,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 12,46</t>
+          <t>0,21; 11,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,48</t>
+          <t>-6,67; 4,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 1,4</t>
+          <t>-10,89; 0,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 101,69</t>
+          <t>-3,13; 96,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 107,5</t>
+          <t>1,23; 101,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 40,29</t>
+          <t>-37,69; 37,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,6; 13,48</t>
+          <t>-61,85; 10,13</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 12,89</t>
+          <t>-1,26; 13,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,71</t>
+          <t>-5,5; 7,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,13</t>
+          <t>-7,7; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 22,8</t>
+          <t>-0,28; 22,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 106,1</t>
+          <t>-7,65; 114,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,19; 65,08</t>
+          <t>-34,43; 71,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 43,79</t>
+          <t>-47,33; 42,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 151,75</t>
+          <t>-3,79; 163,02</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 4,97</t>
+          <t>-6,37; 4,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,88</t>
+          <t>1,63; 13,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,32</t>
+          <t>-3,41; 9,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,59</t>
+          <t>-4,89; 7,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,86; 55,82</t>
+          <t>-42,28; 50,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 201,23</t>
+          <t>11,53; 193,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 85,9</t>
+          <t>-21,4; 89,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 83,77</t>
+          <t>-37,06; 88,43</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,41</t>
+          <t>0,28; 6,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,01</t>
+          <t>0,83; 6,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,36</t>
+          <t>-2,49; 3,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 5,86</t>
+          <t>-2,52; 5,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 50,72</t>
+          <t>1,36; 49,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 60,98</t>
+          <t>5,22; 58,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 28,76</t>
+          <t>-17,44; 30,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 51,21</t>
+          <t>-16,85; 50,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 37,61</t>
+          <t>0,83; 37,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 18,59</t>
+          <t>-18,05; 18,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 42,48</t>
+          <t>4,97; 42,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,24</t>
+          <t>0,0; 26,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 8,02</t>
+          <t>-7,61; 8,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 7,6</t>
+          <t>-9,76; 6,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 5,99</t>
+          <t>-8,68; 4,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 8,23</t>
+          <t>-17,18; 7,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 63,46</t>
+          <t>-38,75; 67,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,78; 52,89</t>
+          <t>-43,55; 46,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,38; 80,43</t>
+          <t>-55,47; 62,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-78,57; 243,93</t>
+          <t>-84,95; 235,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 11,89</t>
+          <t>0,2; 12,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 11,64</t>
+          <t>-0,27; 11,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 4,42</t>
+          <t>-6,93; 4,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 0,59</t>
+          <t>-11,22; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 96,55</t>
+          <t>0,11; 104,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 101,0</t>
+          <t>-2,63; 103,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 37,28</t>
+          <t>-38,65; 39,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-61,85; 10,13</t>
+          <t>-60,68; 16,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 13,26</t>
+          <t>-1,53; 13,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,32</t>
+          <t>-5,9; 7,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 4,18</t>
+          <t>-7,6; 4,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 22,28</t>
+          <t>-0,1; 21,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 114,49</t>
+          <t>-9,38; 105,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 71,56</t>
+          <t>-35,32; 69,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,33; 42,75</t>
+          <t>-47,35; 53,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 163,02</t>
+          <t>-3,16; 149,14</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 4,93</t>
+          <t>-6,02; 4,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 13,23</t>
+          <t>1,07; 12,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 9,11</t>
+          <t>-3,47; 8,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 7,25</t>
+          <t>-5,24; 7,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,28; 50,7</t>
+          <t>-41,17; 52,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,53; 193,53</t>
+          <t>8,66; 191,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 89,07</t>
+          <t>-21,6; 81,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 88,43</t>
+          <t>-39,57; 94,85</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,56</t>
+          <t>0,01; 6,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,83; 6,74</t>
+          <t>0,85; 6,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,58</t>
+          <t>-2,38; 3,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,74</t>
+          <t>-2,51; 5,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 49,87</t>
+          <t>-0,26; 51,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,22; 58,46</t>
+          <t>5,87; 59,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 30,64</t>
+          <t>-15,9; 30,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 50,87</t>
+          <t>-17,46; 49,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP2003-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,85</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>430,17%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-8,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>22,35%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,59%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 37,86</t>
+          <t>-3,54; 11,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 18,19</t>
+          <t>-9,51; 5,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 42,73</t>
+          <t>-4,35; 8,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,42</t>
+          <t>-24,03; 8,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,11; 104,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,8; 42,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,2; 116,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,44; 270,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,61</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>40,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,66%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-36,82%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 8,31</t>
+          <t>0,38; 12,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 6,83</t>
+          <t>-0,06; 12,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 4,92</t>
+          <t>-6,66; 4,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,18; 7,7</t>
+          <t>-11,9; 1,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 67,08</t>
+          <t>2,07; 101,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 46,34</t>
+          <t>-1,27; 107,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,47; 62,2</t>
+          <t>-39,0; 40,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,95; 235,45</t>
+          <t>-62,66; 9,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>40,17%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,8%</t>
+          <t>-13,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-34,64%</t>
+          <t>89,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 12,75</t>
+          <t>-1,84; 12,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 11,9</t>
+          <t>-5,57; 6,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,44</t>
+          <t>-8,32; 4,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 1,14</t>
+          <t>2,38; 42,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 104,81</t>
+          <t>-10,88; 106,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 103,76</t>
+          <t>-35,19; 65,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 39,43</t>
+          <t>-47,93; 43,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 16,05</t>
+          <t>8,55; 324,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,67%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 13,02</t>
+          <t>-6,3; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 7,33</t>
+          <t>1,25; 12,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 4,76</t>
+          <t>-3,42; 9,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 21,83</t>
+          <t>-4,63; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 105,07</t>
+          <t>-41,86; 55,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,32; 69,56</t>
+          <t>8,96; 201,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 53,62</t>
+          <t>-21,29; 85,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 149,14</t>
+          <t>-35,16; 87,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>79,3%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>22,24%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 4,75</t>
+          <t>0,31; 6,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 12,89</t>
+          <t>0,42; 7,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 8,61</t>
+          <t>-2,84; 3,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 7,3</t>
+          <t>-2,69; 15,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 52,06</t>
+          <t>2,03; 50,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 191,86</t>
+          <t>2,98; 60,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 81,46</t>
+          <t>-18,73; 28,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 94,85</t>
+          <t>-18,49; 117,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,32</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,2%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,7%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 6,64</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 6,9</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,38; 3,53</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 5,97</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 51,36</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 59,15</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 30,95</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 49,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
